--- a/data/periodsnap.xlsx
+++ b/data/periodsnap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="add_periodsnap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="307">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,113 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acl -a clear -t nasshare -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all acl settings are cleared on specific nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -t nasshare -d 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_acl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl test</t>
-  </si>
-  <si>
-    <t>acl -a test</t>
-  </si>
-  <si>
-    <t>acl -a refresh test</t>
-  </si>
-  <si>
-    <t>acl -a refresh -t test</t>
-  </si>
-  <si>
-    <t>acl -d test</t>
-  </si>
-  <si>
-    <t>acl -a mod -d 0 -t nasshare -s ""</t>
-  </si>
-  <si>
-    <t>acl -a mod -d 0 -t clone -s ""</t>
-  </si>
-  <si>
-    <t>acl -a clear -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -d 0 -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=[100] is not existed</t>
-  </si>
-  <si>
-    <t>acl -test</t>
-  </si>
-  <si>
-    <t>acl -a refresh -test</t>
-  </si>
-  <si>
-    <t>acl -d 0 -test</t>
-  </si>
-  <si>
-    <t>acl -a clear -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a clear -t nasshare -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a cancel -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a cancel -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -d</t>
-  </si>
-  <si>
-    <t>acl -d 0 -t</t>
-  </si>
-  <si>
-    <t>acl -a</t>
-  </si>
-  <si>
-    <t>acl -a refresh</t>
-  </si>
-  <si>
-    <t>acl -a refresh -d</t>
-  </si>
-  <si>
-    <t>acl -a refresh -d 0 -t</t>
-  </si>
-  <si>
-    <t>acl -a cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a cancel -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acl -a clear -d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Status:</t>
   </si>
   <si>
@@ -163,63 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acl -a set -d 100 -t nasshare -s "role=user,name=admin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 100 -t nasshare -s "role=group,name=users,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t test -s "role=user,name=admin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=test,name=admin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=user,name=test,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=group,name=test,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=user,name=test_acl_0,acl=test"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s "role=group,name=users,acl=test"</t>
-  </si>
-  <si>
-    <t>NAS user [test] doesn't exist</t>
-  </si>
-  <si>
-    <t>acl -a set -test</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -test</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -nasshare -s "test=user,user=adimin,acl=rw"</t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -nasshare -s "role=user,test=adimin,acl=rw"</t>
-  </si>
-  <si>
-    <t>NAS group [test] doesn't exist</t>
-  </si>
-  <si>
-    <t>acl -a set -d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acl -a set -d 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acl -a set -d 0 -t </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acl -a set -d 0 -t nasshare </t>
-  </si>
-  <si>
-    <t>acl -a set -d 0 -t nasshare -s</t>
-  </si>
-  <si>
     <t>periodsnap -a add -t volume -d 1 -s "interval=5,starthour=1, endhour=2, keepnum=1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,50 +630,6 @@
     <t>SnapIdList:</t>
   </si>
   <si>
-    <t>periodsnap -a mod -i 1 -s "interval=15,starthour=3, endhour=4, keepnum=127,status=enable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=30,starthour=4, endhour=5, keepnum=128"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=60,starthour=5, endhour=6, keepnum=127"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=120,starthour=6, endhour=7, keepnum=128"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 11 -s "interval=240,starthour=7, endhour=8, keepnum=127"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 11 -s "interval=360,starthour=8, endhour=9, keepnum=128"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 11 -s "interval=480,starthour=9, endhour=10, keepnum=127"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 11 -s "interval=720,starthour=12, endhour=13, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 11 -s "interval=1440,starthour=18, endhour=19, keepnum=128,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=10,starthour=22, endhour=23, keepnum=127,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=23, endhour=22, keepnum=128,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap -i 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,6 +667,506 @@
   </si>
   <si>
     <t>periodsnap -a add -t nasshare -d 6 -s "starthour=23,keepnum=128,recurtype=weekly,dow=sat fri"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=5,starthour=23, endhour=22, keepnum=128"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=10,starthour=22, endhour=23, keepnum=127"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=10,starthour=22, endhour=23, keepnum=127"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=240,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=360,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=480,status=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=720,status=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=720,status=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=1440,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=1440,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=23, endhour=22, keepnum=128"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=15,starthour=21, endhour=4, keepnum=126"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=30,starthour=0, endhour=5, keepnum=3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=15,starthour=21, endhour=4, keepnum=126"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=30,starthour=0, endhour=5, keepnum=3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=60,starthour=1, endhour=6, keepnum=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=120,starthour=2, endhour=7, keepnum=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 11 -s "recurtype=weekly"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "recurtype=weekly"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 16 -s "recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -t nasshare -i 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -t nasshare -i 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 12 -s "interval=240,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 12 -s "interval=360,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=480,status=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 12 -s "interval=60,starthour=1, endhour=6, keepnum=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 12 -s "interval=120,starthour=2, endhour=7, keepnum=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -t nasshare -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 18 -s "dow=sun mon tues wed,status=disable,starthour=23"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 15 -s "dow=thur fri sat,status=enable,starthour=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "dow=thur fri sat,sataus=enable,starthour=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "dow=sun mon tues wed,sataus=disable,starthour=23"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap 2 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap 14 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap 12 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap 21 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a list -t volume</t>
+  </si>
+  <si>
+    <t>periodsnap -t nasshare</t>
+  </si>
+  <si>
+    <t>2    volume</t>
+  </si>
+  <si>
+    <t>12   nasshare</t>
+  </si>
+  <si>
+    <t>21   nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14    volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t nasshare test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t volume test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t volume -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=test,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=0,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=1441,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=test, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=-1, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=24, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=test, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=-1, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=24, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=test,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=0,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=129,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=test,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=0,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=enable,recurtype=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=1,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t volume -d 14 -s "starthour=2,keepnum=12,status=enable,recurtype=weekly,dow=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+  </si>
+  <si>
+    <t>(Sun|Mon|Tues|Wed|Thur|Fri|Sat)</t>
+  </si>
+  <si>
+    <t>(daily|weekly)</t>
+  </si>
+  <si>
+    <t>(enable|disable)</t>
+  </si>
+  <si>
+    <t>(0,23)</t>
+  </si>
+  <si>
+    <t>(0,23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5|10|15|30|60|120|240|360|480|720|1440)</t>
+  </si>
+  <si>
+    <t>(1,128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=test,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=0,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=1441,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=test, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=-1, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=24, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=test, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=-1, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=24, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=test,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=0,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=129,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=test,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=1,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=0,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=enable,recurtype=test"</t>
+  </si>
+  <si>
+    <t>Incorrect parameters</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 20 -s "starthour=2,keepnum=12,status=enable,recurtype=weekly,dow=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "test=test,starthour=2, endhour=3, keepnum=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t volume -d 14 -s "test=2,starthour=2, endhour=3, keepnum=12"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t nasshare -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t volume -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a add -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a add -t nasshare </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a add -t nasshare -d 9 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a add -t nasshare -d 9 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t volume -d 14 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a mod -i </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a mod -i 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a mod -i 1 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -i 11</t>
+  </si>
+  <si>
+    <t>periodsnap -i 11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,9 +1210,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1224,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,584 +1547,587 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" t="s">
-        <v>137</v>
-      </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="E15" t="s">
-        <v>166</v>
-      </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>154</v>
-      </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="s">
         <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" t="s">
-        <v>232</v>
-      </c>
-      <c r="H21" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>117</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1843,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1874,176 +2170,196 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2055,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2067,7 +2383,7 @@
     <col min="2" max="2" width="72.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
@@ -2096,312 +2412,335 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L2" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="M2" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="N2" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="O2" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="Q2" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="R2" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="S2" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="T2" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L3" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="M3" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="N3" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="O3" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="Q3" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="R3" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="S3" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="T3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L4" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="M4" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="N4" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="O4" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="Q4" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="R4" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="S4" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="T4" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="K5" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L5" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="M5" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="N5" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="O5" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="Q5" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="R5" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="S5" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="T5" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="K6" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L6" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="M6" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="N6" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="O6" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="Q6" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="R6" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="S6" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="T6" t="s">
-        <v>214</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2416,14 +2755,14 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="111.5" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="78.75" customWidth="1"/>
+    <col min="2" max="2" width="99.125" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2443,70 +2782,168 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
@@ -2526,18 +2963,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.75" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -2556,16 +2993,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2577,19 +3056,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="74.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="120.375" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2597,167 +3077,436 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>273</v>
+      </c>
+      <c r="B42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="1" max="1" width="92.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2771,15 +3520,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2787,7 +3536,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -2795,7 +3544,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2803,7 +3552,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2811,7 +3560,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2819,7 +3568,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2827,26 +3576,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2860,12 +3593,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.25" customWidth="1"/>
+    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2879,7 +3612,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -2887,7 +3620,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2895,7 +3628,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2903,7 +3636,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -2911,7 +3644,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2919,7 +3652,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -2927,7 +3660,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -2935,7 +3668,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2943,7 +3676,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2951,7 +3684,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2959,7 +3692,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -2967,7 +3700,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -2975,7 +3708,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -2983,7 +3716,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -2991,10 +3724,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/data/periodsnap.xlsx
+++ b/data/periodsnap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_periodsnap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="306">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -738,10 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -a mod -i 11 -s "recurtype=weekly"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap should be modified by "recurtype=weekly"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,34 +766,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -a mod -i 12 -s "interval=240,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 12 -s "interval=360,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap -a mod -i 1 -s "interval=480,status=disable"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -a mod -i 12 -s "interval=60,starthour=1, endhour=6, keepnum=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 12 -s "interval=120,starthour=2, endhour=7, keepnum=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap -v -t nasshare -i 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -a mod -i 18 -s "dow=sun mon tues wed,status=disable,starthour=23"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap -a mod -i 15 -s "dow=thur fri sat,status=enable,starthour=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,9 +1024,6 @@
     <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=enable,recurtype=test"</t>
   </si>
   <si>
-    <t>Incorrect parameters</t>
-  </si>
-  <si>
     <t>periodsnap -a mod -i 20 -s "starthour=2,keepnum=12,status=enable,recurtype=weekly,dow=test"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,6 +1140,25 @@
   </si>
   <si>
     <t>periodsnap -i 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=60,starthour=1, endhour=6, keepnum=2"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=120,starthour=2, endhour=7, keepnum=1"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=240,status=enable"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=360,status=enable"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 18 -s "dow=sun mon tues wed,status=disable,starthour=23"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 11 -s "recurtype=weekly"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2141,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2344,7 +2336,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
         <v>137</v>
@@ -2722,7 +2714,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -2755,7 +2747,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2788,7 +2780,7 @@
         <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2799,7 +2791,7 @@
         <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2810,7 +2802,7 @@
         <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2821,62 +2813,62 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
         <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
         <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
         <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
         <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -2887,7 +2879,7 @@
         <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -2898,51 +2890,51 @@
         <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" t="s">
         <v>192</v>
       </c>
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
         <v>196</v>
-      </c>
-      <c r="B14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -2993,58 +2985,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
         <v>215</v>
-      </c>
-      <c r="C2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
         <v>214</v>
       </c>
-      <c r="B5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" t="s">
-        <v>220</v>
-      </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3058,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3079,7 +3071,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3087,7 +3079,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3095,7 +3087,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3103,7 +3095,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -3111,7 +3103,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -3119,7 +3111,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -3127,7 +3119,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3135,7 +3127,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -3143,40 +3135,40 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -3184,29 +3176,29 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -3215,29 +3207,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -3246,247 +3238,250 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>263</v>
       </c>
-      <c r="B32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>264</v>
       </c>
-      <c r="B33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="B39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>265</v>
       </c>
-      <c r="B34" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="B40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>266</v>
       </c>
-      <c r="B35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="B41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>267</v>
       </c>
-      <c r="B36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="B42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>268</v>
       </c>
-      <c r="B37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>269</v>
       </c>
-      <c r="B38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="B44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>270</v>
       </c>
-      <c r="B39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>271</v>
       </c>
-      <c r="B40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="B46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>272</v>
       </c>
-      <c r="B41" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>275</v>
-      </c>
-      <c r="B44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>277</v>
-      </c>
-      <c r="B45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>279</v>
-      </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3515,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -3528,7 +3523,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3536,7 +3531,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -3544,7 +3539,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3552,7 +3547,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -3560,7 +3555,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -3568,7 +3563,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3576,10 +3571,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3607,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -3620,7 +3615,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3628,7 +3623,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3636,7 +3631,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3644,7 +3639,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3652,7 +3647,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -3660,7 +3655,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -3668,7 +3663,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -3676,7 +3671,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -3684,7 +3679,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -3692,7 +3687,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -3700,7 +3695,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -3708,7 +3703,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -3716,7 +3711,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -3724,10 +3719,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/periodsnap.xlsx
+++ b/data/periodsnap.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="307">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -658,508 +658,511 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>periodsnap -a add -t volume -d 0 -s "starthour=0, endhour=1, keepnum=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 6 -s "starthour=23,keepnum=128,recurtype=weekly,dow=sat fri"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=5,starthour=23, endhour=22, keepnum=128"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=10,starthour=22, endhour=23, keepnum=127"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=10,starthour=22, endhour=23, keepnum=127"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=240,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=360,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=480,status=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=720,status=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=720,status=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=1440,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=1440,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=23, endhour=22, keepnum=128"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=15,starthour=21, endhour=4, keepnum=126"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=30,starthour=0, endhour=5, keepnum=3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=15,starthour=21, endhour=4, keepnum=126"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=30,starthour=0, endhour=5, keepnum=3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=60,starthour=1, endhour=6, keepnum=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "interval=120,starthour=2, endhour=7, keepnum=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "recurtype=weekly"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 16 -s "recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -t nasshare -i 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -t nasshare -i 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=480,status=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -t nasshare -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 15 -s "dow=thur fri sat,status=enable,starthour=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "dow=thur fri sat,sataus=enable,starthour=0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap should be modified by "dow=sun mon tues wed,sataus=disable,starthour=23"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap 2 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap 14 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap 12 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap 21 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a list -t volume</t>
+  </si>
+  <si>
+    <t>periodsnap -t nasshare</t>
+  </si>
+  <si>
+    <t>2    volume</t>
+  </si>
+  <si>
+    <t>12   nasshare</t>
+  </si>
+  <si>
+    <t>21   nasshare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14    volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t nasshare test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t volume test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t volume -d test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=test,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=0,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=1441,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=test, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=-1, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=24, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=test, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=-1, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=24, keepnum=2,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=test,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=0,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=129,status=disable,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=test,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=0,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=enable,recurtype=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=1,recurtype=daily"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t volume -d 14 -s "starthour=2,keepnum=12,status=enable,recurtype=weekly,dow=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+  </si>
+  <si>
+    <t>(Sun|Mon|Tues|Wed|Thur|Fri|Sat)</t>
+  </si>
+  <si>
+    <t>(daily|weekly)</t>
+  </si>
+  <si>
+    <t>(enable|disable)</t>
+  </si>
+  <si>
+    <t>(0,23)</t>
+  </si>
+  <si>
+    <t>(0,23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5|10|15|30|60|120|240|360|480|720|1440)</t>
+  </si>
+  <si>
+    <t>(1,128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=test,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=0,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=1441,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=test, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=-1, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=24, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=test, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=-1, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=24, keepnum=2,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=test,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=0,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=129,status=disable,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=test,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=1,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=0,recurtype=daily"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=enable,recurtype=test"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 20 -s "starthour=2,keepnum=12,status=enable,recurtype=weekly,dow=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 1 -s "test=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 9 -s "test=test,starthour=2, endhour=3, keepnum=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t volume -d 14 -s "test=2,starthour=2, endhour=3, keepnum=12"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t nasshare -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -t volume -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a add -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a add -t nasshare </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a add -t nasshare -d 9 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a add -t nasshare -d 9 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t volume -d 14 -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a mod -i </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a mod -i 1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">periodsnap -a mod -i 1 -s </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a del -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -i 11</t>
+  </si>
+  <si>
+    <t>periodsnap -i 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=60,starthour=1, endhour=6, keepnum=2"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=120,starthour=2, endhour=7, keepnum=1"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=240,status=enable"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=360,status=enable"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 18 -s "dow=sun mon tues wed,status=disable,starthour=23"</t>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t nasshare  -i 11 -s "recurtype=weekly"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>periodsnap -a add -t nasshare -d 7 -s "starthour=0,keepnum=128,recurtype=weekly"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -a add -t volume -d 0 -s "starthour=0, endhour=1, keepnum=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 6 -s "starthour=23,keepnum=128,recurtype=weekly,dow=sat fri"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=5,starthour=23, endhour=22, keepnum=128"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=10,starthour=22, endhour=23, keepnum=127"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=10,starthour=22, endhour=23, keepnum=127"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=240,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=360,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=480,status=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=720,status=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=720,status=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=1440,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=1440,status=enable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=23, endhour=22, keepnum=128"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=15,starthour=21, endhour=4, keepnum=126"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=30,starthour=0, endhour=5, keepnum=3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=15,starthour=21, endhour=4, keepnum=126"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=30,starthour=0, endhour=5, keepnum=3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=60,starthour=1, endhour=6, keepnum=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "interval=120,starthour=2, endhour=7, keepnum=1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "recurtype=weekly"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -v -i 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 16 -s "recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -v -i 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -v -t nasshare -i 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -v -t nasshare -i 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=480,status=disable"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -v -t nasshare -i 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 15 -s "dow=thur fri sat,status=enable,starthour=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -v -i 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "dow=thur fri sat,sataus=enable,starthour=0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap should be modified by "dow=sun mon tues wed,sataus=disable,starthour=23"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del -i 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del -i 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del -i 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del -i 21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap 2 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap 14 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap 12 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap 21 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a list -t volume</t>
-  </si>
-  <si>
-    <t>periodsnap -t nasshare</t>
-  </si>
-  <si>
-    <t>2    volume</t>
-  </si>
-  <si>
-    <t>12   nasshare</t>
-  </si>
-  <si>
-    <t>21   nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14    volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -t test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -t nasshare test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -t volume test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t volume -d test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=test,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=0,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=1441,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=test, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=-1, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=24, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=test, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=-1, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=24, keepnum=2,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=test,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=0,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=129,status=disable,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=test,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=0,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=enable,recurtype=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=1,recurtype=daily"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t volume -d 14 -s "starthour=2,keepnum=12,status=enable,recurtype=weekly,dow=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-  </si>
-  <si>
-    <t>(Sun|Mon|Tues|Wed|Thur|Fri|Sat)</t>
-  </si>
-  <si>
-    <t>(daily|weekly)</t>
-  </si>
-  <si>
-    <t>(enable|disable)</t>
-  </si>
-  <si>
-    <t>(0,23)</t>
-  </si>
-  <si>
-    <t>(0,23)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5|10|15|30|60|120|240|360|480|720|1440)</t>
-  </si>
-  <si>
-    <t>(1,128)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=test,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=0,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=1441,starthour=2, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=test, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=-1, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=24, endhour=3, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=test, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=-1, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=24, keepnum=2,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=test,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=0,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=129,status=disable,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=test,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=1,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=0,recurtype=daily"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "interval=5,starthour=2, endhour=2, keepnum=12,status=enable,recurtype=test"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 20 -s "starthour=2,keepnum=12,status=enable,recurtype=weekly,dow=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 1 -s "test=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 9 -s "test=test,starthour=2, endhour=3, keepnum=2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t volume -d 14 -s "test=2,starthour=2, endhour=3, keepnum=12"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">periodsnap -t </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -t nasshare -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -t volume -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">periodsnap -a add -t </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">periodsnap -a add -t nasshare </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">periodsnap -a add -t nasshare -d 9 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">periodsnap -a add -t nasshare -d 9 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t volume -d 14 -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">periodsnap -a mod -i </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">periodsnap -a mod -i 1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">periodsnap -a mod -i 1 -s </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a del -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid option for the command or the action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -i 11</t>
-  </si>
-  <si>
-    <t>periodsnap -i 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=60,starthour=1, endhour=6, keepnum=2"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=120,starthour=2, endhour=7, keepnum=1"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=240,status=enable"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=360,status=enable"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 18 -s "dow=sun mon tues wed,status=disable,starthour=23"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 11 -s "recurtype=weekly"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>periodsnap -a mod -i 7 -s "recurtype=weekly"</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1513,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1542,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
@@ -2098,7 +2101,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>305</v>
       </c>
       <c r="B22" t="s">
         <v>169</v>
@@ -2336,7 +2339,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>137</v>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -2774,167 +2777,167 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" t="s">
         <v>181</v>
       </c>
-      <c r="B11" t="s">
-        <v>182</v>
-      </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
         <v>183</v>
       </c>
-      <c r="B12" t="s">
-        <v>184</v>
-      </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
         <v>195</v>
-      </c>
-      <c r="B14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
         <v>201</v>
-      </c>
-      <c r="B15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -2985,58 +2988,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3048,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3079,7 +3082,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3087,7 +3090,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3095,7 +3098,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -3103,7 +3106,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -3111,7 +3114,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3127,7 +3130,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -3135,40 +3138,40 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -3176,29 +3179,29 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -3207,29 +3210,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -3238,250 +3241,258 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" t="s">
         <v>243</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>244</v>
-      </c>
-      <c r="C26" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" t="s">
         <v>244</v>
-      </c>
-      <c r="C45" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3515,7 +3526,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -3523,7 +3534,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3531,7 +3542,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -3539,7 +3550,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3547,7 +3558,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -3555,7 +3566,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -3563,7 +3574,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3571,10 +3582,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3588,12 +3599,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3607,7 +3618,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -3615,7 +3626,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3623,7 +3634,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3631,7 +3642,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3639,7 +3650,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3647,7 +3658,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -3655,7 +3666,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -3663,7 +3674,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -3671,7 +3682,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -3679,7 +3690,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -3687,7 +3698,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -3695,7 +3706,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -3703,7 +3714,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -3711,7 +3722,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -3719,10 +3730,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/periodsnap.xlsx
+++ b/data/periodsnap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="add_periodsnap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="333">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,10 +714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -a mod -i 1 -s "interval=30,starthour=0, endhour=5, keepnum=3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap should be modified by "interval=15,starthour=21, endhour=4, keepnum=126"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,22 +750,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -v -t nasshare -i 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -v -t nasshare -i 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap -a mod -i 1 -s "interval=480,status=disable"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -v -t nasshare -i 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap -a mod -i 15 -s "dow=thur fri sat,status=enable,starthour=0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1133,36 +1117,136 @@
   </si>
   <si>
     <t>periodsnap -i 11</t>
-  </si>
-  <si>
-    <t>periodsnap -i 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=60,starthour=1, endhour=6, keepnum=2"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=120,starthour=2, endhour=7, keepnum=1"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=240,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a add -t nasshare -d 7 -s "starthour=0,keepnum=128,recurtype=weekly"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -i 11 -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 12 -s "interval=60,starthour=1, endhour=6, keepnum=2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 12 -s "interval=120,starthour=2, endhour=7, keepnum=1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 12 -s "interval=240,status=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>periodsnap -a mod -t nasshare  -i 12 -s "interval=360,status=enable"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 18 -s "dow=sun mon tues wed,status=disable,starthour=23"</t>
-  </si>
-  <si>
-    <t>periodsnap -a mod -t nasshare  -i 11 -s "recurtype=weekly"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a add -t nasshare -d 7 -s "starthour=0,keepnum=128,recurtype=weekly"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 7 -s "recurtype=weekly"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 11 -s "recurtype=weekly"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 18 -s "dow=sun mon tues wed,status=disable,starthour=23"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -t volume -i 1 -s "interval=30,starthour=0, endhour=5, keepnum=3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -v -i 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interval: 5</t>
+  </si>
+  <si>
+    <t>StartTime: 23:00</t>
+  </si>
+  <si>
+    <t>EndTime: 22:00</t>
+  </si>
+  <si>
+    <t>KeepNumber: 128</t>
+  </si>
+  <si>
+    <t>Interval: 10</t>
+  </si>
+  <si>
+    <t>StartTime: 22:00</t>
+  </si>
+  <si>
+    <t>EndTime: 23:00</t>
+  </si>
+  <si>
+    <t>KeepNumber: 127</t>
+  </si>
+  <si>
+    <t>Interval: 15</t>
+  </si>
+  <si>
+    <t>StartTime: 21:00</t>
+  </si>
+  <si>
+    <t>KeepNumber: 126</t>
+  </si>
+  <si>
+    <t>Interval: 30</t>
+  </si>
+  <si>
+    <t>KeepNumber: 3</t>
+  </si>
+  <si>
+    <t>KeepNumber: 2</t>
+  </si>
+  <si>
+    <t>StartTime: 1:00</t>
+  </si>
+  <si>
+    <t>Interval: 120</t>
+  </si>
+  <si>
+    <t>StartTime: 2:00</t>
+  </si>
+  <si>
+    <t>Interval: 240</t>
+  </si>
+  <si>
+    <t>Interval: 360</t>
+  </si>
+  <si>
+    <t>Interval: 480</t>
+  </si>
+  <si>
+    <t>Interval: 720</t>
+  </si>
+  <si>
+    <t>Interval: 1440</t>
+  </si>
+  <si>
+    <t>Status: Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SchedType: Weekly </t>
+  </si>
+  <si>
+    <t>DayOfWeek: Sun</t>
+  </si>
+  <si>
+    <t>DayOfWeek: Thur Fri Sat</t>
+  </si>
+  <si>
+    <t>DayOfWeek: Sun Mon Tues Wed</t>
   </si>
 </sst>
 </file>
@@ -2101,7 +2185,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
         <v>169</v>
@@ -2339,7 +2423,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>137</v>
@@ -2369,7 +2453,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2717,7 +2801,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -2747,21 +2831,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="78.75" customWidth="1"/>
-    <col min="2" max="2" width="99.125" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
+    <col min="2" max="2" width="84.625" customWidth="1"/>
+    <col min="3" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
@@ -2783,10 +2868,22 @@
         <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>175</v>
       </c>
@@ -2794,87 +2891,174 @@
         <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" t="s">
         <v>187</v>
       </c>
-      <c r="C4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="C5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="C6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" t="s">
-        <v>190</v>
-      </c>
       <c r="C7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
         <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>180</v>
       </c>
@@ -2882,10 +3066,16 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>182</v>
       </c>
@@ -2893,51 +3083,84 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>191</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -2988,58 +3211,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>208</v>
       </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
         <v>205</v>
       </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
         <v>206</v>
       </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
         <v>207</v>
       </c>
-      <c r="B5" t="s">
-        <v>211</v>
-      </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3051,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3074,7 +3297,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3082,7 +3305,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3090,7 +3313,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3098,7 +3321,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -3106,7 +3329,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -3114,7 +3337,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -3122,7 +3345,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3130,7 +3353,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -3138,40 +3361,40 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -3179,29 +3402,29 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -3210,29 +3433,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -3241,258 +3464,250 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +3741,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -3534,7 +3749,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3542,7 +3757,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -3550,7 +3765,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3558,7 +3773,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -3566,7 +3781,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -3574,7 +3789,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3582,10 +3797,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3833,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -3626,7 +3841,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3634,7 +3849,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3642,7 +3857,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3650,7 +3865,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3658,7 +3873,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -3666,7 +3881,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -3674,7 +3889,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -3682,7 +3897,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -3690,7 +3905,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -3698,7 +3913,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -3706,7 +3921,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -3714,7 +3929,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -3722,7 +3937,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -3730,10 +3945,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/data/periodsnap.xlsx
+++ b/data/periodsnap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="add_periodsnap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="334">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1247,6 +1247,10 @@
   </si>
   <si>
     <t>DayOfWeek: Sun Mon Tues Wed</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2833,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3274,92 +3278,119 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="120.375" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>216</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>219</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>221</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -3367,10 +3398,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>223</v>
       </c>
@@ -3378,10 +3412,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -3389,102 +3426,132 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>226</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>229</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>231</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>234</v>
       </c>
@@ -3492,10 +3559,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>237</v>
       </c>
@@ -3503,10 +3573,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>235</v>
       </c>
@@ -3514,10 +3587,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>236</v>
       </c>
@@ -3525,10 +3601,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>238</v>
       </c>
@@ -3536,154 +3615,211 @@
         <v>239</v>
       </c>
       <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>247</v>
       </c>
       <c r="B27" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>248</v>
       </c>
       <c r="B28" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>249</v>
       </c>
       <c r="B29" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>250</v>
       </c>
       <c r="B30" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>251</v>
       </c>
       <c r="B31" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>252</v>
       </c>
       <c r="B32" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>253</v>
       </c>
       <c r="B33" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>254</v>
       </c>
       <c r="B34" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>255</v>
       </c>
       <c r="B35" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>256</v>
       </c>
       <c r="B36" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>257</v>
       </c>
       <c r="B37" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>258</v>
       </c>
       <c r="B38" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>259</v>
       </c>
       <c r="B39" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>260</v>
       </c>
       <c r="B40" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>261</v>
       </c>
       <c r="B41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>262</v>
       </c>
       <c r="B42" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>263</v>
       </c>
       <c r="B43" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>264</v>
       </c>
       <c r="B44" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>265</v>
       </c>
@@ -3691,22 +3827,31 @@
         <v>239</v>
       </c>
       <c r="C45" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>266</v>
       </c>
       <c r="B46" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>267</v>
       </c>
       <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3719,87 +3864,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="92.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>268</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>269</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>270</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>274</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>275</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>272</v>
       </c>
       <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3811,143 +3984,192 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>276</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>279</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>281</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>282</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>284</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>286</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>290</v>
       </c>
       <c r="B16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" t="s">
         <v>292</v>
       </c>
     </row>

--- a/data/periodsnap.xlsx
+++ b/data/periodsnap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_periodsnap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="335">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1250,6 +1250,10 @@
   </si>
   <si>
     <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodsnap -a mod -i 30 -s "recurtype=weekly"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3278,10 +3282,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3645,7 +3649,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="B29" t="s">
         <v>239</v>
@@ -3656,7 +3660,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s">
         <v>239</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s">
         <v>239</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s">
         <v>239</v>
@@ -3689,7 +3693,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s">
         <v>239</v>
@@ -3700,7 +3704,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s">
         <v>239</v>
@@ -3711,7 +3715,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s">
         <v>239</v>
@@ -3722,7 +3726,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s">
         <v>239</v>
@@ -3733,7 +3737,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s">
         <v>239</v>
@@ -3744,7 +3748,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
         <v>239</v>
@@ -3755,7 +3759,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s">
         <v>239</v>
@@ -3766,7 +3770,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s">
         <v>239</v>
@@ -3777,7 +3781,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s">
         <v>239</v>
@@ -3788,7 +3792,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s">
         <v>239</v>
@@ -3799,7 +3803,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" t="s">
         <v>239</v>
@@ -3810,7 +3814,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" t="s">
         <v>239</v>
@@ -3821,37 +3825,48 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s">
         <v>239</v>
       </c>
       <c r="C45" t="s">
         <v>239</v>
-      </c>
-      <c r="D45" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
         <v>239</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
+      </c>
+      <c r="D46" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>267</v>
       </c>
-      <c r="B47" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3986,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/periodsnap.xlsx
+++ b/data/periodsnap.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="334">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1250,10 +1250,6 @@
   </si>
   <si>
     <t>checkpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>periodsnap -a mod -i 30 -s "recurtype=weekly"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3282,10 +3278,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3649,7 +3645,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s">
         <v>239</v>
@@ -3660,7 +3656,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s">
         <v>239</v>
@@ -3671,7 +3667,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
         <v>239</v>
@@ -3682,7 +3678,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s">
         <v>239</v>
@@ -3693,7 +3689,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
         <v>239</v>
@@ -3704,7 +3700,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" t="s">
         <v>239</v>
@@ -3715,7 +3711,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
         <v>239</v>
@@ -3726,7 +3722,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
         <v>239</v>
@@ -3737,7 +3733,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
         <v>239</v>
@@ -3748,7 +3744,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s">
         <v>239</v>
@@ -3759,7 +3755,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s">
         <v>239</v>
@@ -3770,7 +3766,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
         <v>239</v>
@@ -3781,7 +3777,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
         <v>239</v>
@@ -3792,7 +3788,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
         <v>239</v>
@@ -3803,7 +3799,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B43" t="s">
         <v>239</v>
@@ -3814,7 +3810,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s">
         <v>239</v>
@@ -3825,48 +3821,37 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
         <v>239</v>
       </c>
       <c r="C45" t="s">
         <v>239</v>
+      </c>
+      <c r="D45" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s">
         <v>239</v>
       </c>
       <c r="C46" t="s">
         <v>239</v>
-      </c>
-      <c r="D46" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
         <v>239</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>267</v>
-      </c>
-      <c r="B48" t="s">
-        <v>239</v>
-      </c>
-      <c r="C48" t="s">
         <v>239</v>
       </c>
     </row>

--- a/data/periodsnap.xlsx
+++ b/data/periodsnap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="add_periodsnap" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="331">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -782,10 +782,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap -a del -i 21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap 2 should be deleted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -798,10 +794,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>periodsnap 21 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>periodsnap -a list -t volume</t>
   </si>
   <si>
@@ -812,10 +804,6 @@
   </si>
   <si>
     <t>12   nasshare</t>
-  </si>
-  <si>
-    <t>21   nasshare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14    volume</t>
@@ -2189,7 +2177,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B22" t="s">
         <v>169</v>
@@ -2427,7 +2415,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
         <v>137</v>
@@ -2805,7 +2793,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -2875,16 +2863,16 @@
         <v>192</v>
       </c>
       <c r="D2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" t="s">
         <v>306</v>
-      </c>
-      <c r="E2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2898,16 +2886,16 @@
         <v>192</v>
       </c>
       <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" t="s">
         <v>310</v>
-      </c>
-      <c r="E3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2921,21 +2909,21 @@
         <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
         <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>187</v>
@@ -2944,7 +2932,7 @@
         <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
@@ -2953,47 +2941,47 @@
         <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
         <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
         <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s">
         <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
@@ -3004,19 +2992,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
         <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
@@ -3027,19 +3015,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B9" t="s">
         <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
@@ -3056,7 +3044,7 @@
         <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E10" t="s">
         <v>107</v>
@@ -3073,7 +3061,7 @@
         <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E11" t="s">
         <v>107</v>
@@ -3090,27 +3078,27 @@
         <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B13" t="s">
         <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -3138,10 +3126,10 @@
         <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -3149,22 +3137,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
         <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
         <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -3185,10 +3173,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3218,13 +3206,13 @@
         <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
         <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3232,13 +3220,13 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -3246,27 +3234,13 @@
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
         <v>209</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +3254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -3296,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3304,7 +3278,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3315,7 +3289,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3326,7 +3300,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -3337,7 +3311,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -3348,7 +3322,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -3359,7 +3333,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -3370,7 +3344,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3381,7 +3355,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -3392,7 +3366,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -3401,12 +3375,12 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -3415,12 +3389,12 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3429,12 +3403,12 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -3445,7 +3419,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -3454,12 +3428,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -3468,12 +3442,12 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -3485,7 +3459,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -3494,12 +3468,12 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -3508,12 +3482,12 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -3525,7 +3499,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -3534,12 +3508,12 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -3548,12 +3522,12 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -3562,12 +3536,12 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -3576,12 +3550,12 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -3590,12 +3564,12 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -3604,255 +3578,255 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3885,12 +3859,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -3901,7 +3875,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3912,7 +3886,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -3923,7 +3897,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3934,7 +3908,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -3945,7 +3919,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -3956,7 +3930,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3967,13 +3941,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4005,12 +3979,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -4021,7 +3995,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -4032,7 +4006,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -4043,7 +4017,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -4054,7 +4028,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -4065,7 +4039,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -4076,7 +4050,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -4087,7 +4061,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -4098,7 +4072,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -4109,7 +4083,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -4120,7 +4094,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -4131,7 +4105,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -4142,7 +4116,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -4153,7 +4127,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -4164,13 +4138,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
